--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/metrics/Trial_308__Reeval_LHS_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_2_KS_Holdout_seed_42/metrics/Trial_308__Reeval_LHS_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5911,7 +5911,7 @@
                   <c:v>356.5174560546875</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>359.2083129882812</c:v>
+                  <c:v>359.2083435058594</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>354.7654418945312</c:v>
@@ -5944,7 +5944,7 @@
                   <c:v>359.839599609375</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>353.1089477539062</c:v>
+                  <c:v>353.1089172363281</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>355.5581359863281</c:v>
@@ -5980,7 +5980,7 @@
                   <c:v>355.4895935058594</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>357.977294921875</c:v>
+                  <c:v>357.9772644042969</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>356.6262512207031</c:v>
@@ -5989,7 +5989,7 @@
                   <c:v>355.7407531738281</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>356.5679626464844</c:v>
+                  <c:v>356.5679321289062</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>342.7291564941406</c:v>
@@ -6019,7 +6019,7 @@
                   <c:v>356.6654663085938</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>347.5663146972656</c:v>
+                  <c:v>347.5662841796875</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>342.419677734375</c:v>
@@ -6043,7 +6043,7 @@
                   <c:v>355.7562561035156</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>358.0420532226562</c:v>
+                  <c:v>358.0420837402344</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>355.5352478027344</c:v>
@@ -6079,7 +6079,7 @@
                   <c:v>356.6851501464844</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>356.5582275390625</c:v>
+                  <c:v>356.5582580566406</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>356.5582275390625</c:v>
@@ -6131,7 +6131,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6146,7 +6146,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6175,7 +6175,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6190,7 +6190,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6219,7 +6219,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6234,7 +6234,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6746,13 +6746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H777"/>
+  <dimension ref="A1:S777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6777,8 +6777,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>355.739</v>
       </c>
@@ -6803,8 +6809,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>359.326</v>
       </c>
@@ -6829,8 +6841,14 @@
       <c r="H3">
         <v>371</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="R3">
+        <v>371</v>
+      </c>
+      <c r="S3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>340.662</v>
       </c>
@@ -6850,13 +6868,19 @@
         <v>354.0118713378906</v>
       </c>
       <c r="G4">
+        <v>371</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>371</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>336.328</v>
       </c>
@@ -6881,8 +6905,14 @@
       <c r="H5">
         <v>371</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="R5">
+        <v>371</v>
+      </c>
+      <c r="S5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>341.263</v>
       </c>
@@ -6902,13 +6932,19 @@
         <v>356.5494079589844</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>371</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="S6">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>358.25</v>
       </c>
@@ -6933,8 +6969,14 @@
       <c r="H7">
         <v>371</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="R7">
+        <v>371</v>
+      </c>
+      <c r="S7">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>355.891</v>
       </c>
@@ -6954,7 +6996,7 @@
         <v>354.4190673828125</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>340.957</v>
       </c>
@@ -6974,7 +7016,7 @@
         <v>357.6372680664062</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>365.59</v>
       </c>
@@ -6994,7 +7036,7 @@
         <v>340.6694641113281</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>359.512</v>
       </c>
@@ -7014,7 +7056,7 @@
         <v>347.6630249023438</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>349.72</v>
       </c>
@@ -7034,7 +7076,7 @@
         <v>352.69873046875</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>355.672</v>
       </c>
@@ -7054,7 +7096,7 @@
         <v>347.6715087890625</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>359.602</v>
       </c>
@@ -7074,7 +7116,7 @@
         <v>356.6575927734375</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>361.211</v>
       </c>
@@ -7094,7 +7136,7 @@
         <v>350.6556396484375</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>330.866</v>
       </c>
@@ -7471,7 +7513,7 @@
         <v>354.996</v>
       </c>
       <c r="F34">
-        <v>359.2083129882812</v>
+        <v>359.2083435058594</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7691,7 +7733,7 @@
         <v>338.329</v>
       </c>
       <c r="F45">
-        <v>353.1089477539062</v>
+        <v>353.1089172363281</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7973,7 @@
         <v>360.274</v>
       </c>
       <c r="F57">
-        <v>357.977294921875</v>
+        <v>357.9772644042969</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7991,7 +8033,7 @@
         <v>357.362</v>
       </c>
       <c r="F60">
-        <v>356.5679626464844</v>
+        <v>356.5679321289062</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8191,7 +8233,7 @@
         <v>356.124</v>
       </c>
       <c r="F70">
-        <v>347.5663146972656</v>
+        <v>347.5662841796875</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8351,7 +8393,7 @@
         <v>363.359</v>
       </c>
       <c r="F78">
-        <v>358.0420532226562</v>
+        <v>358.0420837402344</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8591,7 +8633,7 @@
         <v>362.667</v>
       </c>
       <c r="F90">
-        <v>356.5582275390625</v>
+        <v>356.5582580566406</v>
       </c>
     </row>
     <row r="91" spans="1:6">
